--- a/tests/inputfiles/TX_3D.xlsx
+++ b/tests/inputfiles/TX_3D.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20356"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F7E5ED-0DE7-45F7-BFB3-0839A8B6C570}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{990EFDC0-0A3A-4045-8AB6-D28411E40A01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1155" yWindow="225" windowWidth="15885" windowHeight="11595" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="23657" windowHeight="15240" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nodes" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="37">
   <si>
     <t>x</t>
   </si>
@@ -128,10 +128,16 @@
     <t>Loadcase1</t>
   </si>
   <si>
-    <t>invariants</t>
-  </si>
-  <si>
-    <t>Rubber2</t>
+    <t>bulk</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>mu</t>
+  </si>
+  <si>
+    <t>k</t>
   </si>
 </sst>
 </file>
@@ -509,12 +515,12 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="1"/>
+    <col min="1" max="3" width="9.15234375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
         <v>13</v>
       </c>
@@ -528,7 +534,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -542,7 +548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -556,7 +562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -570,7 +576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -584,7 +590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -598,7 +604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="5">
         <v>5</v>
       </c>
@@ -612,7 +618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -626,7 +632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -653,14 +659,14 @@
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="11.42578125" style="1"/>
-    <col min="3" max="3" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.42578125" style="1"/>
+    <col min="2" max="2" width="11.3828125" style="1"/>
+    <col min="3" max="3" width="12.15234375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.3828125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -677,7 +683,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>0</v>
       </c>
@@ -712,15 +718,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
@@ -731,40 +737,40 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="15" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="11.42578125" style="1"/>
+    <col min="2" max="2" width="13.3046875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="11.3828125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="7">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1">
-        <v>2</v>
-      </c>
-      <c r="F1" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -784,37 +790,11 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="1">
-        <v>5000</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="5">
-        <v>0</v>
-      </c>
-      <c r="G3" s="5">
-        <v>0</v>
-      </c>
-      <c r="H3" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -829,9 +809,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
         <v>13</v>
       </c>
@@ -850,7 +830,7 @@
       <c r="G1" s="6"/>
       <c r="I1" s="6"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="5">
         <v>0</v>
       </c>
@@ -869,7 +849,7 @@
       <c r="G2" s="6"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="D3" s="5">
         <v>1</v>
       </c>
@@ -892,12 +872,12 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B2" sqref="B2:D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
         <v>13</v>
       </c>
@@ -911,7 +891,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="5">
         <v>0</v>
       </c>
@@ -925,49 +905,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="3">
+      <c r="B3" s="5">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
         <v>0</v>
       </c>
       <c r="D3" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>24</v>
+      <c r="B4" s="5">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0</v>
       </c>
       <c r="D4" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="3">
-        <v>0</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>24</v>
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0</v>
       </c>
       <c r="D5" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -977,53 +957,53 @@
       <c r="C6" s="5">
         <v>0</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>23</v>
+      <c r="B7" s="5">
+        <v>0</v>
       </c>
       <c r="C7" s="5">
         <v>0</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="5">
         <v>6</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="5">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="5">
         <v>7</v>
       </c>
       <c r="B9" s="5">
         <v>0</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="5">
+        <v>0</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1037,13 +1017,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
         <v>13</v>
       </c>
@@ -1057,26 +1037,26 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="5">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="5">
-        <v>0</v>
+      <c r="B3" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>14</v>
@@ -1085,35 +1065,35 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="5">
-        <v>0</v>
-      </c>
-      <c r="C4" s="5">
-        <v>0</v>
+      <c r="B4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="5">
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="5">
-        <v>0</v>
+      <c r="C5" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -1123,53 +1103,53 @@
       <c r="C6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="B7" s="5">
-        <v>0</v>
+      <c r="B7" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="5">
         <v>6</v>
       </c>
-      <c r="B8" s="5">
-        <v>0</v>
-      </c>
-      <c r="C8" s="5">
-        <v>0</v>
-      </c>
-      <c r="D8" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="5">
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="5">
-        <v>0</v>
-      </c>
-      <c r="D9" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -1184,12 +1164,12 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="9" t="s">
         <v>7</v>
       </c>
@@ -1200,40 +1180,40 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="5">
-        <v>800</v>
+        <v>0.2</v>
       </c>
       <c r="C2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="5">
-        <v>800</v>
+        <v>0.2</v>
       </c>
       <c r="C3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>25</v>
       </c>
       <c r="B4" s="5">
-        <v>800</v>
+        <v>0.2</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1253,13 +1233,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D933F90-10A8-4DC0-B5C0-2D6C61414BC4}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B1" s="11" t="s">
         <v>7</v>
       </c>
@@ -1276,7 +1256,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="11">
         <v>0</v>
       </c>
